--- a/inst/models/competitionAndCoexistence.xlsx
+++ b/inst/models/competitionAndCoexistence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="eqns" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -49,7 +49,13 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">growth_A</t>
+    <t xml:space="preserve">grw_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg C / L / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth of A</t>
   </si>
   <si>
     <t xml:space="preserve">muA * min(P / (P+hP_A), N / (N+hN_A)) * A</t>
@@ -64,31 +70,43 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">growth_B</t>
+    <t xml:space="preserve">grw_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth of B</t>
   </si>
   <si>
     <t xml:space="preserve">muB * min(P / (P+hP_B), N / (N+hN_B)) * B</t>
   </si>
   <si>
-    <t xml:space="preserve">trans_P</t>
+    <t xml:space="preserve">tsp_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg P / L / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transport</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Pin - P)</t>
   </si>
   <si>
-    <t xml:space="preserve">trans_N</t>
+    <t xml:space="preserve">tsp_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg N / L / h</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Pin * N2Pin(time, minN2P, maxN2P, intN2P) - N)</t>
   </si>
   <si>
-    <t xml:space="preserve">trans_A</t>
+    <t xml:space="preserve">tsp_A</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Ain - A)</t>
   </si>
   <si>
-    <t xml:space="preserve">trans_B</t>
+    <t xml:space="preserve">tsp_B</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Bin - B)</t>
@@ -477,13 +495,13 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.05"/>
@@ -522,42 +540,60 @@
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -566,40 +602,58 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +681,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.56"/>
@@ -646,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -668,10 +722,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>1</v>
@@ -682,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.06</v>
@@ -696,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1.2</v>
@@ -727,7 +781,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
@@ -745,18 +799,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>3</v>
@@ -764,13 +818,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3</v>
@@ -778,13 +832,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">(16*14)/(1*31)</f>
@@ -793,13 +847,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">(106*12) / (1*31)</f>
@@ -808,13 +862,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0.01</v>
@@ -822,13 +876,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.01</v>
@@ -836,13 +890,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>0.1</v>
@@ -850,13 +904,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>0.1</v>
@@ -864,13 +918,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>14</v>
@@ -878,13 +932,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -892,13 +946,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -906,13 +960,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.06</v>
@@ -920,13 +974,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">(16*14)/(1*31)</f>
@@ -935,13 +989,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">(16*14)/(1*31)</f>
@@ -950,13 +1004,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>10</v>
@@ -980,11 +1034,11 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>
@@ -995,97 +1049,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/inst/models/competitionAndCoexistence.xlsx
+++ b/inst/models/competitionAndCoexistence.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">grw_A</t>
   </si>
   <si>
-    <t xml:space="preserve">mg C / L / h</t>
+    <t xml:space="preserve">mg C /L /h</t>
   </si>
   <si>
     <t xml:space="preserve">growth of A</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">tsp_P</t>
   </si>
   <si>
-    <t xml:space="preserve">mg P / L / h</t>
+    <t xml:space="preserve">mg P /L /h</t>
   </si>
   <si>
     <t xml:space="preserve">transport</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">tsp_N</t>
   </si>
   <si>
-    <t xml:space="preserve">mg N / L / h</t>
+    <t xml:space="preserve">mg N /L /h</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Pin * N2Pin(time, minN2P, maxN2P, intN2P) - N)</t>
@@ -496,12 +496,12 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.05"/>
@@ -681,7 +681,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.56"/>
@@ -781,7 +781,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
@@ -1038,7 +1038,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>

--- a/inst/models/competitionAndCoexistence.xlsx
+++ b/inst/models/competitionAndCoexistence.xlsx
@@ -49,10 +49,10 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">grw_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg C /L /h</t>
+    <t xml:space="preserve">gr_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg C/L/h</t>
   </si>
   <si>
     <t xml:space="preserve">growth of A</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">grw_B</t>
+    <t xml:space="preserve">gr_B</t>
   </si>
   <si>
     <t xml:space="preserve">growth of B</t>
@@ -79,10 +79,10 @@
     <t xml:space="preserve">muB * min(P / (P+hP_B), N / (N+hN_B)) * B</t>
   </si>
   <si>
-    <t xml:space="preserve">tsp_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg P /L /h</t>
+    <t xml:space="preserve">tr_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg P/L/h</t>
   </si>
   <si>
     <t xml:space="preserve">transport</t>
@@ -91,22 +91,22 @@
     <t xml:space="preserve">1/tau * (Pin - P)</t>
   </si>
   <si>
-    <t xml:space="preserve">tsp_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg N /L /h</t>
+    <t xml:space="preserve">tr_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg N/L/h</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Pin * N2Pin(time, minN2P, maxN2P, intN2P) - N)</t>
   </si>
   <si>
-    <t xml:space="preserve">tsp_A</t>
+    <t xml:space="preserve">tr_A</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Ain - A)</t>
   </si>
   <si>
-    <t xml:space="preserve">tsp_B</t>
+    <t xml:space="preserve">tr_B</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Bin - B)</t>
@@ -496,10 +496,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.02"/>
@@ -681,7 +681,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.56"/>
@@ -781,7 +781,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
@@ -1038,7 +1038,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>

--- a/inst/models/competitionAndCoexistence.xlsx
+++ b/inst/models/competitionAndCoexistence.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">gr_A</t>
   </si>
   <si>
-    <t xml:space="preserve">mg C/L/h</t>
+    <t xml:space="preserve">mg C / L / h</t>
   </si>
   <si>
     <t xml:space="preserve">growth of A</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">tr_P</t>
   </si>
   <si>
-    <t xml:space="preserve">mg P/L/h</t>
+    <t xml:space="preserve">mg P / L / h</t>
   </si>
   <si>
     <t xml:space="preserve">transport</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">tr_N</t>
   </si>
   <si>
-    <t xml:space="preserve">mg N/L/h</t>
+    <t xml:space="preserve">mg N / L / h</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Pin * N2Pin(time, minN2P, maxN2P, intN2P) - N)</t>
@@ -499,7 +499,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.02"/>
@@ -681,7 +681,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.56"/>
@@ -781,7 +781,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
@@ -1038,7 +1038,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>
